--- a/tests/data/no_reference.xlsx
+++ b/tests/data/no_reference.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhearne/src/python/shakemap-amp-tools/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FA390CAE-77FE-4C4E-81BD-02895406B7AD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="920" windowWidth="18540" windowHeight="15360"/>
+    <workbookView xWindow="4200" yWindow="920" windowWidth="18540" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +30,6 @@
     <t>station</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>ACAM</t>
   </si>
   <si>
@@ -126,12 +121,18 @@
   </si>
   <si>
     <t>lon</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>netid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -520,11 +521,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,19 +538,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -558,13 +559,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>20.043185999999999</v>
@@ -579,13 +580,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>16.874293999999999</v>
@@ -600,13 +601,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>17.213360999999999</v>
@@ -621,13 +622,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>16.247374000000001</v>
@@ -642,13 +643,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>19.325265999999999</v>
@@ -663,13 +664,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>16.997788</v>
@@ -684,13 +685,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>17.798341000000001</v>
@@ -705,13 +706,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
         <v>16.565152999999999</v>
@@ -726,13 +727,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
         <v>17.067336999999998</v>
@@ -747,13 +748,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
         <v>17.065038999999999</v>
@@ -768,13 +769,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
         <v>15.666836999999999</v>
@@ -789,13 +790,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
         <v>17.535395999999999</v>
@@ -810,13 +811,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>19.044222999999999</v>
@@ -831,13 +832,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
         <v>18.904050999999999</v>
@@ -852,13 +853,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
         <v>17.98762</v>
@@ -873,13 +874,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
         <v>19.421758000000001</v>
@@ -894,13 +895,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
         <v>16.914259999999999</v>
@@ -915,13 +916,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
         <v>19.529875000000001</v>
@@ -939,8 +940,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" tooltip="Michoacán" display="https://en.wikipedia.org/wiki/Michoac%C3%A1n"/>
-    <hyperlink ref="B19" r:id="rId2" tooltip="Veracruz" display="https://en.wikipedia.org/wiki/Veracruz"/>
+    <hyperlink ref="B17" r:id="rId1" tooltip="Michoacán" display="https://en.wikipedia.org/wiki/Michoac%C3%A1n" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B19" r:id="rId2" tooltip="Veracruz" display="https://en.wikipedia.org/wiki/Veracruz" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tests/data/no_reference.xlsx
+++ b/tests/data/no_reference.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhearne/src/python/shakemap-amp-tools/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FA390CAE-77FE-4C4E-81BD-02895406B7AD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCF5201-786F-F443-90C9-C5A9459E7126}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="920" windowWidth="18540" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
-    <t>station</t>
-  </si>
-  <si>
     <t>ACAM</t>
   </si>
   <si>
@@ -114,19 +111,22 @@
     <t>Veracruz</t>
   </si>
   <si>
-    <t>intensity</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>netid</t>
+    <t>STATION</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>NETID</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LON</t>
+  </si>
+  <si>
+    <t>INTENSITY</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,22 +535,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -559,13 +559,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>20.043185999999999</v>
@@ -580,13 +580,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>16.874293999999999</v>
@@ -601,13 +601,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>17.213360999999999</v>
@@ -622,13 +622,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>16.247374000000001</v>
@@ -643,13 +643,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>19.325265999999999</v>
@@ -664,13 +664,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>16.997788</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>17.798341000000001</v>
@@ -706,13 +706,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
         <v>16.565152999999999</v>
@@ -727,13 +727,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>17.067336999999998</v>
@@ -748,13 +748,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>17.065038999999999</v>
@@ -769,13 +769,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>15.666836999999999</v>
@@ -790,13 +790,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
         <v>17.535395999999999</v>
@@ -811,13 +811,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>19.044222999999999</v>
@@ -832,13 +832,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <v>18.904050999999999</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>17.98762</v>
@@ -874,13 +874,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>19.421758000000001</v>
@@ -895,13 +895,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <v>16.914259999999999</v>
@@ -916,13 +916,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <v>19.529875000000001</v>
